--- a/精算書作成/精算書_出品.xlsx
+++ b/精算書作成/精算書_出品.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailkyutechjp-my.sharepoint.com/personal/nakanishi_takumi767_mail_kyutech_jp/Documents/自動化/automation-with-python/精算書作成/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="11_806258E5DE1312D8FE1F11472ED4DA5D248C47FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{106156F3-F122-F34E-9A0E-981B77C8A5B4}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="11_806258E5DE1312D8FE1F11472ED4DA5D248C47FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFA78873-B370-464F-81A3-C00C03AB3E4E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="精算書_出品" sheetId="5" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>伝票NO.06122024004</t>
   </si>
@@ -1080,135 +1080,58 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="18" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="16" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="16" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="8" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1223,57 +1146,134 @@
     <xf numFmtId="177" fontId="17" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="18" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="16" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="16" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1306,6 +1306,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1631,7 +1635,7 @@
   </sheetPr>
   <dimension ref="A2:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O28" sqref="O28:Q28"/>
     </sheetView>
   </sheetViews>
@@ -1650,68 +1654,68 @@
       <c r="A2" s="46"/>
     </row>
     <row r="3" spans="1:17" ht="30" customHeight="1">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
     </row>
     <row r="4" spans="1:17" ht="30" customHeight="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="103"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="48"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1">
-      <c r="A5" s="112"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="111" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="103"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
       <c r="L5" s="33"/>
-      <c r="M5" s="104">
+      <c r="M5" s="52">
         <f>明細書!E3</f>
         <v>0</v>
       </c>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="1:17" ht="11.25" customHeight="1">
       <c r="A6" s="45"/>
@@ -1752,49 +1756,49 @@
       <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A8" s="114"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
       <c r="J8" s="27"/>
       <c r="K8" s="21"/>
-      <c r="L8" s="102" t="s">
+      <c r="L8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
     </row>
     <row r="9" spans="1:17" ht="19.5" customHeight="1">
       <c r="A9" s="27"/>
-      <c r="B9" s="54" t="str">
+      <c r="B9" s="57">
         <f>明細書!E5</f>
-        <v>伝票NO.06122024004</v>
-      </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
+        <v>0</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
       <c r="K9" s="21"/>
-      <c r="L9" s="102" t="s">
+      <c r="L9" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1">
       <c r="A10" s="27"/>
@@ -1808,14 +1812,14 @@
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
       <c r="K10" s="21"/>
-      <c r="L10" s="102" t="s">
+      <c r="L10" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
     </row>
     <row r="11" spans="1:17" ht="19.5" customHeight="1">
       <c r="A11" s="21" t="s">
@@ -1831,14 +1835,14 @@
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
       <c r="K11" s="21"/>
-      <c r="L11" s="102" t="s">
+      <c r="L11" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
     </row>
     <row r="12" spans="1:17" ht="19.5" customHeight="1">
       <c r="A12" s="21" t="s">
@@ -1854,14 +1858,14 @@
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
       <c r="K12" s="41"/>
-      <c r="L12" s="102" t="s">
+      <c r="L12" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="103"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
     </row>
     <row r="13" spans="1:17" ht="19.5" customHeight="1">
       <c r="A13" s="42" t="s">
@@ -1878,13 +1882,13 @@
       <c r="J13" s="21"/>
       <c r="K13" s="41"/>
       <c r="L13" s="41"/>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
     </row>
     <row r="14" spans="1:17" ht="19.5" customHeight="1">
       <c r="A14" s="27"/>
@@ -1897,15 +1901,15 @@
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="54" t="s">
+      <c r="K14" s="52"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
     </row>
     <row r="15" spans="1:17" ht="9.75" customHeight="1">
       <c r="A15" s="27"/>
@@ -1927,28 +1931,28 @@
       <c r="Q15" s="21"/>
     </row>
     <row r="16" spans="1:17" ht="30" customHeight="1" thickBot="1">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="107">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60">
         <f>-O27</f>
         <v>0</v>
       </c>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
     </row>
     <row r="17" spans="1:17" ht="9.75" customHeight="1" thickTop="1">
       <c r="A17" s="27"/>
@@ -1970,93 +1974,93 @@
       <c r="Q17" s="27"/>
     </row>
     <row r="18" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="47" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="98" t="s">
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="99"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="66"/>
     </row>
     <row r="19" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A19" s="90"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="92" t="s">
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="101"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="74"/>
     </row>
     <row r="20" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A20" s="90"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="92" t="s">
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="95">
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="72">
         <f>O19/(1+0.1)*0.1</f>
         <v>0</v>
       </c>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="91"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="68"/>
     </row>
     <row r="21" spans="1:17" ht="19" customHeight="1">
-      <c r="A21" s="90"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="91"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="68"/>
     </row>
     <row r="22" spans="1:17" ht="12.75" customHeight="1">
       <c r="A22" s="40"/>
@@ -2078,90 +2082,90 @@
       <c r="Q22" s="37"/>
     </row>
     <row r="23" spans="1:17" ht="24" customHeight="1">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="80" t="s">
+      <c r="B23" s="77"/>
+      <c r="C23" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="80" t="s">
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="81"/>
-      <c r="O23" s="80" t="s">
+      <c r="N23" s="77"/>
+      <c r="O23" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="81"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="77"/>
     </row>
     <row r="24" spans="1:17" ht="19" customHeight="1">
-      <c r="A24" s="83"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="85" t="s">
+      <c r="A24" s="79"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="59"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="88"/>
     </row>
     <row r="25" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A25" s="66"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="75"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="93"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="98"/>
     </row>
     <row r="26" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A26" s="76"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="64"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="105"/>
     </row>
     <row r="27" spans="1:17" ht="26.25" customHeight="1">
       <c r="A27" s="35"/>
@@ -2176,16 +2180,16 @@
       <c r="J27" s="36"/>
       <c r="K27" s="36"/>
       <c r="L27" s="34"/>
-      <c r="M27" s="55" t="s">
+      <c r="M27" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="N27" s="56"/>
-      <c r="O27" s="57">
+      <c r="N27" s="113"/>
+      <c r="O27" s="86">
         <f>O24</f>
         <v>0</v>
       </c>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="59"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="88"/>
     </row>
     <row r="28" spans="1:17" ht="26.25" customHeight="1">
       <c r="A28" s="35"/>
@@ -2200,16 +2204,16 @@
       <c r="J28" s="35"/>
       <c r="K28" s="35"/>
       <c r="L28" s="34"/>
-      <c r="M28" s="60" t="s">
+      <c r="M28" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="N28" s="61"/>
-      <c r="O28" s="62">
+      <c r="N28" s="115"/>
+      <c r="O28" s="103">
         <f>O27/(1+0.1)*0.1</f>
         <v>0</v>
       </c>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="64"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="105"/>
     </row>
     <row r="29" spans="1:17" ht="26.25" customHeight="1">
       <c r="A29" s="21"/>
@@ -2221,8 +2225,8 @@
       <c r="G29" s="33"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
       <c r="L29" s="32"/>
       <c r="M29" s="32"/>
       <c r="N29" s="32"/>
@@ -2269,10 +2273,10 @@
       <c r="Q31" s="21"/>
     </row>
     <row r="32" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="48"/>
+      <c r="B32" s="106"/>
       <c r="C32" s="30" t="s">
         <v>31</v>
       </c>
@@ -2292,8 +2296,8 @@
       <c r="Q32" s="28"/>
     </row>
     <row r="33" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="108"/>
       <c r="C33" s="27" t="s">
         <v>32</v>
       </c>
@@ -2313,15 +2317,15 @@
       <c r="Q33" s="26"/>
     </row>
     <row r="34" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A34" s="49"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="53" t="s">
+      <c r="A34" s="107"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -2334,8 +2338,8 @@
       <c r="Q34" s="26"/>
     </row>
     <row r="35" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A35" s="51"/>
-      <c r="B35" s="52"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="110"/>
       <c r="C35" s="25" t="s">
         <v>34</v>
       </c>
@@ -2375,6 +2379,55 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A32:B35"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:Q16"/>
     <mergeCell ref="L10:Q10"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="A4:G4"/>
@@ -2388,55 +2441,6 @@
     <mergeCell ref="L8:Q8"/>
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="A32:B35"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="J29:K29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2455,8 +2459,8 @@
   </sheetPr>
   <dimension ref="E1:F45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -2486,9 +2490,6 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="5:6" ht="19.5" customHeight="1">
-      <c r="E5" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="5:6" ht="25.5" customHeight="1">
